--- a/medicine/Enfance/Cynthia_Lord/Cynthia_Lord.xlsx
+++ b/medicine/Enfance/Cynthia_Lord/Cynthia_Lord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynthia Lord, née à Waltham au Massachusetts, est une écrivaine américaine de littérature pour enfants connue pour son premier livre Rules (en), lauréate de la médaille Newbery en 2006.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cynthia Lord grandit dans le New Hampshire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynthia Lord grandit dans le New Hampshire.
 </t>
         </is>
       </c>
@@ -544,24 +558,139 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Rules (en), Scholastic Paperbacks, New York, 2006, 224 pages,  (ISBN 978-0-439-44383-8) ;
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rules (en), Scholastic Paperbacks, New York, 2006, 224 pages,  (ISBN 978-0-439-44383-8) ;
 Touch Blue, Scholastic Inc., New York, 2010, 198 pages,  (ISBN 978-0-545-03531-6), lire en ligne ;
 Half a Chance, Scholastic Inc., New York, 2014, 224 pages,  (ISBN 978-0-545-03533-0) 
 A Handful of Stars, Scholastic Inc., New York, 2015, 192 pages,  (ISBN 978-0-545-70028-3), lire en ligne (extrait) ;
-Because of the Rabbit, Scholastic Inc., New York, 2019, 208 pages,  (ISBN 978-0-545-91426-0), lire en ligne (extrait)[Note 1].
-Série Hot Rod Hamster
-Hot Rod Hamster, illustrations de Derek Anderson, Scholastic Inc., New York, 2010, 40 pages,  (ISBN 978-0-545-03530-9), lire en ligne ;
+Because of the Rabbit, Scholastic Inc., New York, 2019, 208 pages,  (ISBN 978-0-545-91426-0), lire en ligne (extrait)[Note 1].</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cynthia_Lord</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynthia_Lord</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Hot Rod Hamster</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hot Rod Hamster, illustrations de Derek Anderson, Scholastic Inc., New York, 2010, 40 pages,  (ISBN 978-0-545-03530-9), lire en ligne ;
 Happy Birthday Hamster, illustrations de Derek Anderson, Scholastic Inc., New York, 2011, 32 pages,  (ISBN 978-0-545-25522-6), lire en ligne (extraits) ;
 Monster Truck Mania, illustrations de Derek Anderson, Scholastic Inc., New York, 2014, 40 pages,  (ISBN 978-0-545-46261-7) ;
 Hot Rod Hamster and the Wacky Whatever Race, illustrations de Derek Anderson, Scholastic Inc., New York, 2014, 32 pages,  (ISBN 978-0-545-69442-1) ;
-Hod Rod Hamster and the Halloween Party, illustrations de Derek Anderson, Scholastic Inc., New York, 2015, 32 pages,  (ISBN 978-0-545-81529-1).
-Série Shelter Pet Squad
-Jelly Bean, illustrations d'Erin McGuire, Scholastic Inc., New York, 2014, 128 pages,  (ISBN 978-0-545-63596-7) ;
+Hod Rod Hamster and the Halloween Party, illustrations de Derek Anderson, Scholastic Inc., New York, 2015, 32 pages,  (ISBN 978-0-545-81529-1).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cynthia_Lord</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynthia_Lord</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Shelter Pet Squad</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jelly Bean, illustrations d'Erin McGuire, Scholastic Inc., New York, 2014, 128 pages,  (ISBN 978-0-545-63596-7) ;
 Merlin, illustrations d'Erin McGuire, Scholastic Inc., New York, 2015, 128 pages,  (ISBN 978-0-545-63600-1), lire en ligne (extrait) ;
-Paloma, illustrations d'Erin McGuire, Scholastic Inc., New York, 2016, 128 pages,  (ISBN 978-0-545-63604-9).
-Albums illustrés
-Borrowing Bunnies: A Surprising True Tale of Fostering Rabbits, illustrations de Hazel Mitchell, photographies de John Bald, Farrar, Straus and Giroux, New York, 2019, 40 pages,  (ISBN 978-03-743-0841-4).</t>
+Paloma, illustrations d'Erin McGuire, Scholastic Inc., New York, 2016, 128 pages,  (ISBN 978-0-545-63604-9).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cynthia_Lord</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynthia_Lord</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Borrowing Bunnies: A Surprising True Tale of Fostering Rabbits, illustrations de Hazel Mitchell, photographies de John Bald, Farrar, Straus and Giroux, New York, 2019, 40 pages,  (ISBN 978-03-743-0841-4).</t>
         </is>
       </c>
     </row>
